--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Required Value Added for producing the wells and pumps.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Required Value Added for producing the wells and pumps.xlsx
@@ -55,13 +55,13 @@
     <t>Poultry</t>
   </si>
   <si>
-    <t>Fossil-fuels</t>
-  </si>
-  <si>
     <t>Mining</t>
   </si>
   <si>
     <t>Food and beverages</t>
+  </si>
+  <si>
+    <t>Grain milling</t>
   </si>
   <si>
     <t>Other manufacturing</t>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002601335493636725</v>
+        <v>0.004710989992645409</v>
       </c>
       <c r="D2">
-        <v>0.003611985037423437</v>
+        <v>0.006541265210898928</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002956565626845986</v>
+        <v>0.005354307861125562</v>
       </c>
       <c r="D3">
-        <v>0.01267852153796412</v>
+        <v>0.02296066318376688</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.553578895003739e-06</v>
+        <v>4.624503390004975e-06</v>
       </c>
       <c r="D4">
-        <v>3.630642049756716e-05</v>
+        <v>6.575052884727484e-05</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.27386550477604e-07</v>
+        <v>4.117945024972869e-07</v>
       </c>
       <c r="D5">
-        <v>6.507276566480868e-07</v>
+        <v>1.178460706796614e-06</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001277060791153417</v>
+        <v>0.002378746371505258</v>
       </c>
       <c r="D6">
-        <v>0.004478814504182083</v>
+        <v>0.008304274442707538</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.644600354846261e-05</v>
+        <v>7.340388879129023e-05</v>
       </c>
       <c r="D7">
-        <v>0.0001066768450073141</v>
+        <v>0.0001577967155981241</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.334200525590859e-05</v>
+        <v>5.088006417963697e-06</v>
       </c>
       <c r="D8">
-        <v>9.190619107357634e-05</v>
+        <v>8.644386582545849e-06</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0005444763900186445</v>
+        <v>0.0009860407593578202</v>
       </c>
       <c r="D9">
-        <v>8.272510243045872e-05</v>
+        <v>0.0001498142514435585</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.348412527590881e-05</v>
+        <v>2.441960273813493e-05</v>
       </c>
       <c r="D10">
-        <v>1.920710948866144e-05</v>
+        <v>3.478386423694246e-05</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.003027569225338311</v>
+        <v>0.005482894597179211</v>
       </c>
       <c r="D11">
-        <v>0.005110374557204977</v>
+        <v>0.009254832165197513</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.950971323580688e-05</v>
+        <v>8.966154662459758e-05</v>
       </c>
       <c r="D12">
-        <v>0.002113214532755592</v>
+        <v>0.003827008297093926</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0009259288119380926</v>
+        <v>0.001676846903450269</v>
       </c>
       <c r="D13">
-        <v>0.004226308279044133</v>
+        <v>0.007653797850593946</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.00134152424710976</v>
+        <v>0.002429485669495079</v>
       </c>
       <c r="D14">
-        <v>0.005018301583845641</v>
+        <v>0.009088089022213808</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04860434187997953</v>
+        <v>0.08802192903099915</v>
       </c>
       <c r="D15">
-        <v>0.2605994112986494</v>
+        <v>0.4719426701320799</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0001278133943145576</v>
+        <v>0.0002314686525579646</v>
       </c>
       <c r="D16">
-        <v>0.001119313074468664</v>
+        <v>0.002027063677928709</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.418159633459481e-05</v>
+        <v>2.568271513325726e-05</v>
       </c>
       <c r="D17">
-        <v>0.0002000333914793373</v>
+        <v>0.0003622582737534685</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.558029069012264e-05</v>
+        <v>0.0001730948565636936</v>
       </c>
       <c r="D18">
-        <v>0.0006693743489449844</v>
+        <v>0.001212229592056246</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1042,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.002248192889965139</v>
+        <v>0.004071452625794336</v>
       </c>
       <c r="D19">
-        <v>0.005429516542790225</v>
+        <v>0.009832794781686971</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.002588765855762176</v>
+        <v>0.004688226516918803</v>
       </c>
       <c r="D20">
-        <v>0.005005322582292138</v>
+        <v>0.009064584197403747</v>
       </c>
       <c r="E20">
         <v>0</v>
